--- a/Mifos Automation Excels/Client/821-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/821-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>click</t>
   </si>
@@ -31,9 +31,6 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Tranche Loan</t>
   </si>
   <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>loantrancheclick</t>
   </si>
   <si>
@@ -91,7 +85,37 @@
     <t>moratoriumoninterestpayment</t>
   </si>
   <si>
-    <t>821-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment</t>
+    <t>821RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
   </si>
 </sst>
 </file>
@@ -152,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -177,6 +201,10 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -777,7 +805,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -788,12 +816,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -808,24 +836,24 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="A5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>42005</v>
@@ -833,7 +861,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>10000</v>
@@ -841,23 +869,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>42005</v>
@@ -865,18 +893,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +934,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -902,22 +946,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1020,52 +1064,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1744,20 +1788,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>41974</v>
@@ -1765,7 +1809,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>1000</v>
@@ -1773,15 +1817,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>41974</v>
@@ -1789,7 +1833,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -1797,15 +1841,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>41974</v>
@@ -1813,7 +1857,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>1000</v>
@@ -1824,12 +1868,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>41974</v>
@@ -1837,12 +1881,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>1000</v>
@@ -1850,7 +1894,7 @@
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>1000</v>
@@ -1858,7 +1902,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1866,7 +1910,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="8">
         <v>12</v>
@@ -1874,7 +1918,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1882,15 +1926,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3">
         <v>42095</v>
@@ -1898,7 +1942,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2">
         <v>10000</v>

--- a/Mifos Automation Excels/Client/821-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/821-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>click</t>
   </si>
@@ -85,9 +85,6 @@
     <t>moratoriumoninterestpayment</t>
   </si>
   <si>
-    <t>821RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment</t>
-  </si>
-  <si>
     <t>approveloan</t>
   </si>
   <si>
@@ -116,13 +113,61 @@
   </si>
   <si>
     <t>submitdisburse</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Paid Date</t>
+  </si>
+  <si>
+    <t>Principal Due</t>
+  </si>
+  <si>
+    <t>Balance of Loan</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>In Advance</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>821-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,6 +181,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -173,10 +229,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -198,15 +255,40 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,7 +876,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -805,7 +887,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -816,12 +898,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -836,10 +918,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11">
         <v>10000</v>
       </c>
     </row>
@@ -869,7 +951,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -877,7 +959,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -893,15 +975,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -917,10 +999,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1016,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1051,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1062,707 +1144,708 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="18">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <v>31</v>
+      </c>
+      <c r="C3" s="18">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>788.49</v>
+      </c>
+      <c r="G3" s="16">
+        <v>9211.51</v>
+      </c>
+      <c r="H3" s="15">
+        <v>100</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15">
+        <v>28</v>
+      </c>
+      <c r="C4" s="18">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>788.49</v>
+      </c>
+      <c r="G4" s="16">
+        <v>8423.02</v>
+      </c>
+      <c r="H4" s="15">
+        <v>100</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>31</v>
+      </c>
+      <c r="C5" s="18">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>788.49</v>
+      </c>
+      <c r="G5" s="16">
+        <v>7634.53</v>
+      </c>
+      <c r="H5" s="15">
+        <v>100</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15">
+        <v>30</v>
+      </c>
+      <c r="C6" s="18">
+        <v>42125</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>812.14</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6822.39</v>
+      </c>
+      <c r="H6" s="15">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>31</v>
+      </c>
+      <c r="C7" s="18">
+        <v>42156</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>820.27</v>
+      </c>
+      <c r="G7" s="16">
+        <v>6002.12</v>
+      </c>
+      <c r="H7" s="15">
+        <v>68.22</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15">
+        <v>30</v>
+      </c>
+      <c r="C8" s="18">
+        <v>42186</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>828.47</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5173.6499999999996</v>
+      </c>
+      <c r="H8" s="15">
+        <v>60.02</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>31</v>
+      </c>
+      <c r="C9" s="18">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>836.75</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4336.8999999999996</v>
+      </c>
+      <c r="H9" s="15">
+        <v>51.74</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B10" s="15">
         <v>31</v>
       </c>
-      <c r="C3" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>788.49</v>
-      </c>
-      <c r="G3" s="10">
-        <v>9211.51</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>788.49</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>788.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>788.49</v>
-      </c>
-      <c r="G4" s="10">
-        <v>8423.02</v>
-      </c>
-      <c r="H4" s="4">
-        <v>200</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>988.49</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>988.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="C10" s="18">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>845.12</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3491.78</v>
+      </c>
+      <c r="H10" s="15">
+        <v>43.37</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15">
+        <v>30</v>
+      </c>
+      <c r="C11" s="18">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>853.57</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2638.21</v>
+      </c>
+      <c r="H11" s="15">
+        <v>34.92</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15">
         <v>31</v>
       </c>
-      <c r="C5" s="11">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>788.49</v>
-      </c>
-      <c r="G5" s="10">
-        <v>7634.53</v>
-      </c>
-      <c r="H5" s="4">
-        <v>100</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>888.49</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="C12" s="18">
+        <v>42309</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>862.11</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1776.1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>26.38</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15">
         <v>30</v>
       </c>
-      <c r="C6" s="11">
-        <v>42125</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>812.14</v>
-      </c>
-      <c r="G6" s="10">
-        <v>6822.39</v>
-      </c>
-      <c r="H6" s="4">
-        <v>76.349999999999994</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>888.49</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="C13" s="18">
+        <v>42339</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>870.73</v>
+      </c>
+      <c r="G13" s="15">
+        <v>905.37</v>
+      </c>
+      <c r="H13" s="15">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>888.49</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15">
         <v>31</v>
       </c>
-      <c r="C7" s="11">
-        <v>42156</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>820.27</v>
-      </c>
-      <c r="G7" s="10">
-        <v>6002.12</v>
-      </c>
-      <c r="H7" s="4">
-        <v>68.22</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>888.49</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11">
-        <v>42186</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>828.47</v>
-      </c>
-      <c r="G8" s="10">
-        <v>5173.6499999999996</v>
-      </c>
-      <c r="H8" s="4">
-        <v>60.02</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>888.49</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>31</v>
-      </c>
-      <c r="C9" s="11">
-        <v>42217</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>836.75</v>
-      </c>
-      <c r="G9" s="10">
-        <v>4336.8999999999996</v>
-      </c>
-      <c r="H9" s="4">
-        <v>51.74</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>888.49</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>31</v>
-      </c>
-      <c r="C10" s="11">
-        <v>42248</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>845.12</v>
-      </c>
-      <c r="G10" s="10">
-        <v>3491.78</v>
-      </c>
-      <c r="H10" s="4">
-        <v>43.37</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>888.49</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>30</v>
-      </c>
-      <c r="C11" s="11">
-        <v>42278</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>853.57</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2638.21</v>
-      </c>
-      <c r="H11" s="4">
-        <v>34.92</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>888.49</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>31</v>
-      </c>
-      <c r="C12" s="11">
-        <v>42309</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>862.11</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1776.1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>26.38</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>888.49</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>30</v>
-      </c>
-      <c r="C13" s="11">
-        <v>42339</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>870.73</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="C14" s="18">
+        <v>42370</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
         <v>905.37</v>
       </c>
-      <c r="H13" s="4">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>888.49</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11">
-        <v>42370</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>905.37</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
         <v>9.0500000000000007</v>
       </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
         <v>914.42</v>
       </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
         <v>914.42</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="P30" s="17"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C30:E30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Mifos Automation Excels/Client/821-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/821-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -166,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -233,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -286,6 +291,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -296,6 +304,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -318,7 +329,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -358,7 +375,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -398,7 +421,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -438,7 +467,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769"/>
+        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -478,7 +513,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942"/>
+        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -518,7 +559,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946"/>
+        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -558,7 +605,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif"/>
+        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -629,7 +682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,9 +715,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,6 +767,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -875,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1133,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1231,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
@@ -1184,17 +1271,18 @@
       <c r="M1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="18">
@@ -1221,8 +1309,9 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -1262,17 +1351,18 @@
       <c r="M3" s="15">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
-        <v>0</v>
-      </c>
+      <c r="N3" s="15"/>
       <c r="O3" s="15">
         <v>0</v>
       </c>
       <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -1312,17 +1402,18 @@
       <c r="M4" s="15">
         <v>0</v>
       </c>
-      <c r="N4" s="15">
-        <v>0</v>
-      </c>
+      <c r="N4" s="15"/>
       <c r="O4" s="15">
         <v>0</v>
       </c>
       <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -1362,17 +1453,18 @@
       <c r="M5" s="15">
         <v>0</v>
       </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
+      <c r="N5" s="15"/>
       <c r="O5" s="15">
         <v>0</v>
       </c>
       <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -1412,17 +1504,18 @@
       <c r="M6" s="15">
         <v>0</v>
       </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
+      <c r="N6" s="15"/>
       <c r="O6" s="15">
         <v>0</v>
       </c>
       <c r="P6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -1462,17 +1555,18 @@
       <c r="M7" s="15">
         <v>0</v>
       </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
+      <c r="N7" s="15"/>
       <c r="O7" s="15">
         <v>0</v>
       </c>
       <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -1512,17 +1606,18 @@
       <c r="M8" s="15">
         <v>0</v>
       </c>
-      <c r="N8" s="15">
-        <v>0</v>
-      </c>
+      <c r="N8" s="15"/>
       <c r="O8" s="15">
         <v>0</v>
       </c>
       <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -1562,17 +1657,18 @@
       <c r="M9" s="15">
         <v>0</v>
       </c>
-      <c r="N9" s="15">
-        <v>0</v>
-      </c>
+      <c r="N9" s="15"/>
       <c r="O9" s="15">
         <v>0</v>
       </c>
       <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -1612,17 +1708,18 @@
       <c r="M10" s="15">
         <v>0</v>
       </c>
-      <c r="N10" s="15">
-        <v>0</v>
-      </c>
+      <c r="N10" s="15"/>
       <c r="O10" s="15">
         <v>0</v>
       </c>
       <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -1662,17 +1759,18 @@
       <c r="M11" s="15">
         <v>0</v>
       </c>
-      <c r="N11" s="15">
-        <v>0</v>
-      </c>
+      <c r="N11" s="15"/>
       <c r="O11" s="15">
         <v>0</v>
       </c>
       <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -1712,17 +1810,18 @@
       <c r="M12" s="15">
         <v>0</v>
       </c>
-      <c r="N12" s="15">
-        <v>0</v>
-      </c>
+      <c r="N12" s="15"/>
       <c r="O12" s="15">
         <v>0</v>
       </c>
       <c r="P12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>11</v>
       </c>
@@ -1762,17 +1861,18 @@
       <c r="M13" s="15">
         <v>0</v>
       </c>
-      <c r="N13" s="15">
-        <v>0</v>
-      </c>
+      <c r="N13" s="15"/>
       <c r="O13" s="15">
         <v>0</v>
       </c>
       <c r="P13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
         <v>888.49</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>12</v>
       </c>
@@ -1812,22 +1912,23 @@
       <c r="M14" s="15">
         <v>0</v>
       </c>
-      <c r="N14" s="15">
-        <v>0</v>
-      </c>
+      <c r="N14" s="15"/>
       <c r="O14" s="15">
         <v>0</v>
       </c>
       <c r="P14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
         <v>914.42</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="19"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -1836,10 +1937,11 @@
       <c r="K30" s="17"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="P30" s="17"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N30" s="21"/>
+      <c r="O30" s="13"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
     </row>
   </sheetData>
